--- a/REPORTE_CORTE.xlsx
+++ b/REPORTE_CORTE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIP\Documents\POYECTO_REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD92398-938D-4F27-841A-C7D01EBE4B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F34A7C-0642-4D5D-9AA9-F3F5B1B6AF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="168" yWindow="1320" windowWidth="17460" windowHeight="9888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="732" windowWidth="14232" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORTE" sheetId="3" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="117">
   <si>
     <t>Asesor</t>
   </si>
@@ -762,7 +760,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -857,6 +855,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -878,67 +934,8 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -972,11 +969,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Campania_25.1"/>
     </sheetNames>
@@ -984,43 +978,43 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="A2" t="str">
-            <v>Mariella Orosco</v>
+            <v>Stefano Napuri</v>
           </cell>
           <cell r="C2">
             <v>0</v>
           </cell>
           <cell r="D2">
-            <v>5</v>
+            <v>0</v>
           </cell>
           <cell r="E2">
-            <v>2</v>
+            <v>0</v>
           </cell>
           <cell r="F2">
             <v>0</v>
           </cell>
           <cell r="G2">
-            <v>3</v>
+            <v>0</v>
           </cell>
           <cell r="H2">
             <v>100</v>
           </cell>
           <cell r="I2">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="J2">
-            <v>21</v>
+            <v>30</v>
           </cell>
           <cell r="K2">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="L2">
-            <v>17</v>
+            <v>24</v>
           </cell>
           <cell r="M2">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="N2">
-            <v>6</v>
+            <v>4</v>
           </cell>
           <cell r="P2">
             <v>1</v>
@@ -1028,37 +1022,37 @@
         </row>
         <row r="3">
           <cell r="D3">
-            <v>27</v>
+            <v>12</v>
           </cell>
           <cell r="E3">
-            <v>18</v>
+            <v>9</v>
           </cell>
           <cell r="F3">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="G3">
-            <v>26</v>
+            <v>12</v>
           </cell>
           <cell r="H3">
             <v>100</v>
           </cell>
           <cell r="I3">
-            <v>9</v>
+            <v>3</v>
           </cell>
           <cell r="J3">
-            <v>21</v>
+            <v>30</v>
           </cell>
           <cell r="K3">
             <v>1</v>
           </cell>
           <cell r="L3">
-            <v>17</v>
+            <v>24</v>
           </cell>
           <cell r="M3">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="N3">
-            <v>6</v>
+            <v>4</v>
           </cell>
           <cell r="P3">
             <v>1</v>
@@ -1066,19 +1060,19 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>Andrea Araujo Antara</v>
+            <v>INGRID GUILLERMO RIVERA</v>
           </cell>
           <cell r="D4">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="E4">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="F4">
             <v>0</v>
           </cell>
           <cell r="G4">
-            <v>1</v>
+            <v>3</v>
           </cell>
           <cell r="H4">
             <v>100</v>
@@ -1087,19 +1081,19 @@
             <v>0</v>
           </cell>
           <cell r="J4">
-            <v>21</v>
+            <v>30</v>
           </cell>
           <cell r="K4">
             <v>0</v>
           </cell>
           <cell r="L4">
-            <v>17</v>
+            <v>24</v>
           </cell>
           <cell r="M4">
             <v>0</v>
           </cell>
           <cell r="N4">
-            <v>6</v>
+            <v>4</v>
           </cell>
           <cell r="O4">
             <v>0</v>
@@ -1110,37 +1104,37 @@
         </row>
         <row r="5">
           <cell r="D5">
-            <v>8</v>
+            <v>20</v>
           </cell>
           <cell r="E5">
-            <v>3</v>
+            <v>15</v>
           </cell>
           <cell r="F5">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G5">
-            <v>6</v>
+            <v>18</v>
           </cell>
           <cell r="H5">
             <v>100</v>
           </cell>
           <cell r="I5">
+            <v>5</v>
+          </cell>
+          <cell r="J5">
+            <v>30</v>
+          </cell>
+          <cell r="K5">
+            <v>5</v>
+          </cell>
+          <cell r="L5">
+            <v>24</v>
+          </cell>
+          <cell r="M5">
+            <v>2</v>
+          </cell>
+          <cell r="N5">
             <v>4</v>
-          </cell>
-          <cell r="J5">
-            <v>21</v>
-          </cell>
-          <cell r="K5">
-            <v>2</v>
-          </cell>
-          <cell r="L5">
-            <v>17</v>
-          </cell>
-          <cell r="M5">
-            <v>1</v>
-          </cell>
-          <cell r="N5">
-            <v>6</v>
           </cell>
           <cell r="P5">
             <v>1</v>
@@ -1148,43 +1142,43 @@
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>Fiorella Lanegra</v>
+            <v>Rosmery Enriquez</v>
           </cell>
           <cell r="C6">
             <v>0</v>
           </cell>
           <cell r="D6">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="E6">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="F6">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="G6">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="H6">
             <v>100</v>
           </cell>
           <cell r="I6">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="J6">
-            <v>21</v>
+            <v>30</v>
           </cell>
           <cell r="K6">
             <v>0</v>
           </cell>
           <cell r="L6">
-            <v>17</v>
+            <v>24</v>
           </cell>
           <cell r="M6">
             <v>0</v>
           </cell>
           <cell r="N6">
-            <v>6</v>
+            <v>4</v>
           </cell>
           <cell r="P6">
             <v>1</v>
@@ -1198,13 +1192,13 @@
             <v>13</v>
           </cell>
           <cell r="E7">
-            <v>7</v>
+            <v>8</v>
           </cell>
           <cell r="F7">
-            <v>4</v>
+            <v>2</v>
           </cell>
           <cell r="G7">
-            <v>11</v>
+            <v>13</v>
           </cell>
           <cell r="H7">
             <v>100</v>
@@ -1213,19 +1207,19 @@
             <v>5</v>
           </cell>
           <cell r="J7">
-            <v>21</v>
+            <v>30</v>
           </cell>
           <cell r="K7">
-            <v>0</v>
+            <v>3</v>
           </cell>
           <cell r="L7">
-            <v>17</v>
+            <v>24</v>
           </cell>
           <cell r="M7">
             <v>0</v>
           </cell>
           <cell r="N7">
-            <v>6</v>
+            <v>4</v>
           </cell>
           <cell r="P7">
             <v>1</v>
@@ -1233,43 +1227,43 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>Angelica Iparraguirre</v>
+            <v>Janira Delgado Salazar</v>
           </cell>
           <cell r="C8">
             <v>0</v>
           </cell>
           <cell r="D8">
-            <v>0</v>
+            <v>16</v>
           </cell>
           <cell r="E8">
-            <v>0</v>
+            <v>11</v>
           </cell>
           <cell r="F8">
-            <v>0</v>
+            <v>5</v>
           </cell>
           <cell r="G8">
-            <v>0</v>
+            <v>16</v>
           </cell>
           <cell r="H8">
             <v>100</v>
           </cell>
           <cell r="I8">
-            <v>0</v>
+            <v>5</v>
           </cell>
           <cell r="J8">
-            <v>21</v>
+            <v>30</v>
           </cell>
           <cell r="K8">
             <v>0</v>
           </cell>
           <cell r="L8">
-            <v>17</v>
+            <v>24</v>
           </cell>
           <cell r="M8">
             <v>0</v>
           </cell>
           <cell r="N8">
-            <v>6</v>
+            <v>4</v>
           </cell>
           <cell r="O8">
             <v>0</v>
@@ -1283,16 +1277,16 @@
             <v>0</v>
           </cell>
           <cell r="D9">
-            <v>1</v>
+            <v>10</v>
           </cell>
           <cell r="E9">
-            <v>0</v>
+            <v>9</v>
           </cell>
           <cell r="F9">
             <v>0</v>
           </cell>
           <cell r="G9">
-            <v>1</v>
+            <v>10</v>
           </cell>
           <cell r="H9">
             <v>100</v>
@@ -1301,19 +1295,19 @@
             <v>1</v>
           </cell>
           <cell r="J9">
-            <v>21</v>
+            <v>30</v>
           </cell>
           <cell r="K9">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="L9">
-            <v>17</v>
+            <v>24</v>
           </cell>
           <cell r="M9">
             <v>0</v>
           </cell>
           <cell r="N9">
-            <v>6</v>
+            <v>4</v>
           </cell>
           <cell r="P9">
             <v>1</v>
@@ -1321,22 +1315,22 @@
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>Maria Paz</v>
+            <v>JOSE RAUL MENDEZ NONAJULCA</v>
           </cell>
           <cell r="C10">
             <v>0</v>
           </cell>
           <cell r="D10">
-            <v>8</v>
+            <v>6</v>
           </cell>
           <cell r="E10">
-            <v>7</v>
+            <v>3</v>
           </cell>
           <cell r="F10">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="G10">
-            <v>8</v>
+            <v>4</v>
           </cell>
           <cell r="H10">
             <v>100</v>
@@ -1345,19 +1339,22 @@
             <v>1</v>
           </cell>
           <cell r="J10">
-            <v>21</v>
+            <v>30</v>
           </cell>
           <cell r="K10">
             <v>0</v>
           </cell>
           <cell r="L10">
-            <v>17</v>
+            <v>24</v>
           </cell>
           <cell r="M10">
             <v>0</v>
           </cell>
           <cell r="N10">
-            <v>6</v>
+            <v>4</v>
+          </cell>
+          <cell r="O10">
+            <v>0</v>
           </cell>
           <cell r="P10">
             <v>1</v>
@@ -1368,39 +1365,215 @@
             <v>0</v>
           </cell>
           <cell r="D11">
-            <v>12</v>
+            <v>11</v>
           </cell>
           <cell r="E11">
-            <v>9</v>
+            <v>5</v>
           </cell>
           <cell r="F11">
-            <v>2</v>
+            <v>1</v>
           </cell>
           <cell r="G11">
-            <v>12</v>
+            <v>8</v>
           </cell>
           <cell r="H11">
             <v>100</v>
           </cell>
           <cell r="I11">
+            <v>4</v>
+          </cell>
+          <cell r="J11">
+            <v>30</v>
+          </cell>
+          <cell r="K11">
+            <v>4</v>
+          </cell>
+          <cell r="L11">
+            <v>24</v>
+          </cell>
+          <cell r="M11">
+            <v>2</v>
+          </cell>
+          <cell r="N11">
+            <v>4</v>
+          </cell>
+          <cell r="P11">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Andrea Araujo Antara</v>
+          </cell>
+          <cell r="C12">
+            <v>0</v>
+          </cell>
+          <cell r="D12">
+            <v>4</v>
+          </cell>
+          <cell r="E12">
+            <v>4</v>
+          </cell>
+          <cell r="F12">
+            <v>0</v>
+          </cell>
+          <cell r="G12">
+            <v>4</v>
+          </cell>
+          <cell r="H12">
+            <v>100</v>
+          </cell>
+          <cell r="I12">
+            <v>0</v>
+          </cell>
+          <cell r="J12">
+            <v>30</v>
+          </cell>
+          <cell r="K12">
+            <v>0</v>
+          </cell>
+          <cell r="L12">
+            <v>24</v>
+          </cell>
+          <cell r="M12">
+            <v>0</v>
+          </cell>
+          <cell r="N12">
+            <v>4</v>
+          </cell>
+          <cell r="O12">
+            <v>0</v>
+          </cell>
+          <cell r="P12">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>0</v>
+          </cell>
+          <cell r="D13">
+            <v>8</v>
+          </cell>
+          <cell r="E13">
+            <v>8</v>
+          </cell>
+          <cell r="F13">
+            <v>0</v>
+          </cell>
+          <cell r="G13">
+            <v>8</v>
+          </cell>
+          <cell r="H13">
+            <v>100</v>
+          </cell>
+          <cell r="I13">
+            <v>0</v>
+          </cell>
+          <cell r="J13">
+            <v>30</v>
+          </cell>
+          <cell r="K13">
+            <v>0</v>
+          </cell>
+          <cell r="L13">
+            <v>24</v>
+          </cell>
+          <cell r="M13">
+            <v>0</v>
+          </cell>
+          <cell r="N13">
+            <v>4</v>
+          </cell>
+          <cell r="P13">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Cinthia Orosco</v>
+          </cell>
+          <cell r="C14">
+            <v>0</v>
+          </cell>
+          <cell r="D14">
+            <v>7</v>
+          </cell>
+          <cell r="E14">
+            <v>4</v>
+          </cell>
+          <cell r="F14">
+            <v>0</v>
+          </cell>
+          <cell r="G14">
+            <v>7</v>
+          </cell>
+          <cell r="H14">
+            <v>100</v>
+          </cell>
+          <cell r="I14">
             <v>3</v>
           </cell>
-          <cell r="J11">
-            <v>21</v>
-          </cell>
-          <cell r="K11">
+          <cell r="J14">
+            <v>30</v>
+          </cell>
+          <cell r="K14">
+            <v>2</v>
+          </cell>
+          <cell r="L14">
+            <v>24</v>
+          </cell>
+          <cell r="M14">
             <v>0</v>
           </cell>
-          <cell r="L11">
-            <v>17</v>
-          </cell>
-          <cell r="M11">
+          <cell r="N14">
+            <v>4</v>
+          </cell>
+          <cell r="O14">
             <v>0</v>
           </cell>
-          <cell r="N11">
+          <cell r="P14">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>0</v>
+          </cell>
+          <cell r="D15">
+            <v>13</v>
+          </cell>
+          <cell r="E15">
+            <v>7</v>
+          </cell>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+          <cell r="G15">
+            <v>13</v>
+          </cell>
+          <cell r="H15">
+            <v>100</v>
+          </cell>
+          <cell r="I15">
             <v>6</v>
           </cell>
-          <cell r="P11">
+          <cell r="J15">
+            <v>30</v>
+          </cell>
+          <cell r="K15">
+            <v>5</v>
+          </cell>
+          <cell r="L15">
+            <v>24</v>
+          </cell>
+          <cell r="M15">
+            <v>2</v>
+          </cell>
+          <cell r="N15">
+            <v>4</v>
+          </cell>
+          <cell r="P15">
             <v>1</v>
           </cell>
         </row>
@@ -1695,11 +1868,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2D0723-DF97-4E8A-B3C9-7D6DDB0EF25E}">
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y21" sqref="Y21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1731,7 +1904,7 @@
         <v>94</v>
       </c>
       <c r="B1" s="19">
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
@@ -1754,36 +1927,36 @@
       <c r="A5" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55" t="s">
+      <c r="G5" s="73"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="58" t="s">
+      <c r="J5" s="60"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="59"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="61" t="s">
+      <c r="M5" s="57"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="64" t="s">
+      <c r="P5" s="63"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="S5" s="65"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="58" t="s">
+      <c r="S5" s="66"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="V5" s="59"/>
-      <c r="W5" s="60"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="58"/>
     </row>
     <row r="6" spans="1:25" s="2" customFormat="1" ht="45" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="e">
@@ -1878,7 +2051,7 @@
         <f>+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F7" s="75" t="e">
+      <c r="F7" s="51" t="e">
         <f>+#REF!</f>
         <v>#REF!</v>
       </c>
@@ -1890,11 +2063,11 @@
         <f>+F7/G7</f>
         <v>#REF!</v>
       </c>
-      <c r="I7" s="75" t="e">
+      <c r="I7" s="51" t="e">
         <f>+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J7" s="68" t="e">
+      <c r="J7" s="4" t="e">
         <f>ROUNDUP(#REF!*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
         <v>#REF!</v>
       </c>
@@ -1902,15 +2075,15 @@
         <f>+I7/J7</f>
         <v>#REF!</v>
       </c>
-      <c r="L7" s="75" t="e">
+      <c r="L7" s="51" t="e">
         <f>+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M7" s="68" t="e">
+      <c r="M7" s="4" t="e">
         <f>ROUNDUP(#REF!*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
         <v>#REF!</v>
       </c>
-      <c r="N7" s="76" t="e">
+      <c r="N7" s="52" t="e">
         <f>+#REF!</f>
         <v>#REF!</v>
       </c>
@@ -1918,18 +2091,18 @@
         <f>+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="P7" s="68" t="e">
+      <c r="P7" s="4" t="e">
         <f>ROUNDUP(#REF!*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
         <v>#REF!</v>
       </c>
-      <c r="Q7" s="76" t="e">
+      <c r="Q7" s="52" t="e">
         <f>+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="R7" s="75">
+      <c r="R7" s="51">
         <v>2</v>
       </c>
-      <c r="S7" s="68" t="e">
+      <c r="S7" s="4" t="e">
         <f>ROUNDUP(#REF!*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
         <v>#REF!</v>
       </c>
@@ -1937,10 +2110,10 @@
         <f>+R7/S7</f>
         <v>#REF!</v>
       </c>
-      <c r="U7" s="75">
-        <v>0</v>
-      </c>
-      <c r="V7" s="68" t="e">
+      <c r="U7" s="51">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4" t="e">
         <f>ROUNDUP(#REF!*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
         <v>#REF!</v>
       </c>
@@ -1986,7 +2159,7 @@
         <f>+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J8" s="68" t="e">
+      <c r="J8" s="4" t="e">
         <f>ROUNDUP(#REF!*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
         <v>#REF!</v>
       </c>
@@ -1998,7 +2171,7 @@
         <f>+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M8" s="68" t="e">
+      <c r="M8" s="4" t="e">
         <f>ROUNDUP(#REF!*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
         <v>#REF!</v>
       </c>
@@ -2010,7 +2183,7 @@
         <f>+#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="P8" s="68" t="e">
+      <c r="P8" s="4" t="e">
         <f>ROUNDUP(#REF!*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
         <v>#REF!</v>
       </c>
@@ -2021,7 +2194,7 @@
       <c r="R8" s="30">
         <v>0</v>
       </c>
-      <c r="S8" s="68" t="e">
+      <c r="S8" s="4" t="e">
         <f>ROUNDUP(#REF!*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
         <v>#REF!</v>
       </c>
@@ -2032,7 +2205,7 @@
       <c r="U8" s="30">
         <v>0</v>
       </c>
-      <c r="V8" s="68" t="e">
+      <c r="V8" s="4" t="e">
         <f>ROUNDUP(#REF!*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
         <v>#REF!</v>
       </c>
@@ -2149,42 +2322,42 @@
         <v>98</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="G20" s="53" t="s">
+      <c r="G20" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="55" t="s">
+      <c r="H20" s="73"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="K20" s="56"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="58" t="s">
+      <c r="K20" s="60"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="N20" s="59"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="61" t="s">
+      <c r="N20" s="57"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="64" t="s">
+      <c r="Q20" s="63"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="T20" s="65"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="58" t="s">
+      <c r="T20" s="66"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="W20" s="59"/>
-      <c r="X20" s="60"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="58"/>
     </row>
     <row r="21" spans="1:24" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="52"/>
+      <c r="A21" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="72"/>
       <c r="C21" s="18" t="s">
         <v>1</v>
       </c>
@@ -2253,9 +2426,9 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="51" t="str">
-        <f>+'[1]Campania_25.1'!A2</f>
-        <v>Mariella Orosco</v>
+      <c r="A22" s="71" t="str">
+        <f>+'[1]Campania_25.1'!$A$2</f>
+        <v>Stefano Napuri</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>75</v>
@@ -2266,11 +2439,11 @@
       </c>
       <c r="D22" s="22">
         <f>+'[1]Campania_25.1'!D2</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E22" s="22">
         <f>+'[1]Campania_25.1'!E2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22" s="22">
         <f>+'[1]Campania_25.1'!F2</f>
@@ -2278,19 +2451,19 @@
       </c>
       <c r="G22" s="23">
         <f>+'[1]Campania_25.1'!G2</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H22" s="22">
         <f>+ROUNDUP('[1]Campania_25.1'!H2*(($B$1-$B$2)/($B$3-$B$2))*0.3,0)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I22" s="24">
         <f>+G22/H22</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="J22" s="22">
         <f>+'[1]Campania_25.1'!I2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="22">
         <f>+ROUNDUP('[1]Campania_25.1'!J2*(($B$1-$B$2)/($B$3-$B$2))*0.3,0)</f>
@@ -2298,11 +2471,11 @@
       </c>
       <c r="L22" s="24">
         <f>+J22/K22</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M22" s="23">
         <f>+'[1]Campania_25.1'!K2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="22">
         <f>+ROUNDUP('[1]Campania_25.1'!L2*(($B$1-$B$2)/($B$3-$B$2))*0.3,0)</f>
@@ -2310,19 +2483,19 @@
       </c>
       <c r="O22" s="24">
         <f>+M22/N22</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P22" s="23">
         <f>+'[1]Campania_25.1'!M2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="22">
-        <f>+ROUNDUP('[1]Campania_25.1'!N2*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
-        <v>2</v>
+        <f>+ROUNDUP('[1]Campania_25.1'!N2*(($B$1-$B$2)/($B$3-$B$2))*0.3,0)</f>
+        <v>1</v>
       </c>
       <c r="R22" s="24">
         <f>+P22/Q22</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S22" s="23">
         <v>0</v>
@@ -2347,8 +2520,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
+    <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="70"/>
       <c r="B23" s="28" t="s">
         <v>76</v>
       </c>
@@ -2357,31 +2530,31 @@
       </c>
       <c r="D23" s="27">
         <f>+'[1]Campania_25.1'!D3</f>
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E23" s="27">
         <f>+'[1]Campania_25.1'!E3</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F23" s="27">
         <f>+'[1]Campania_25.1'!F3</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="29">
         <f>+'[1]Campania_25.1'!G3</f>
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H23" s="27">
         <f>+ROUNDUP('[1]Campania_25.1'!H3*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I23" s="24">
         <f t="shared" ref="I23:I27" si="0">+G23/H23</f>
-        <v>1.2380952380952381</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J23" s="27">
         <f>+'[1]Campania_25.1'!I3</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K23" s="27">
         <f>+ROUNDUP('[1]Campania_25.1'!J3*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
@@ -2389,7 +2562,7 @@
       </c>
       <c r="L23" s="24">
         <f t="shared" ref="L23:L27" si="1">+J23/K23</f>
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="M23" s="29">
         <f>+'[1]Campania_25.1'!K3</f>
@@ -2405,15 +2578,15 @@
       </c>
       <c r="P23" s="29">
         <f>+'[1]Campania_25.1'!M3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="27">
-        <f>+ROUNDUP('[1]Campania_25.1'!N3*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
-        <v>2</v>
+        <f>+ROUNDUP('[1]Campania_25.1'!N3*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
+        <v>1</v>
       </c>
       <c r="R23" s="24">
         <f t="shared" ref="R23:R27" si="3">+P23/Q23</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S23" s="29">
         <v>0</v>
@@ -2439,9 +2612,9 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="48" t="str">
+      <c r="A24" s="68" t="str">
         <f>+'[1]Campania_25.1'!$A$4</f>
-        <v>Andrea Araujo Antara</v>
+        <v>INGRID GUILLERMO RIVERA</v>
       </c>
       <c r="B24" t="s">
         <v>75</v>
@@ -2451,11 +2624,11 @@
       </c>
       <c r="D24" s="12">
         <f>+'[1]Campania_25.1'!D4</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" s="12">
         <f>+'[1]Campania_25.1'!E4</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" s="12">
         <f>+'[1]Campania_25.1'!F4</f>
@@ -2463,15 +2636,15 @@
       </c>
       <c r="G24" s="21">
         <f>+'[1]Campania_25.1'!G4</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24" s="12">
         <f>+ROUNDUP('[1]Campania_25.1'!H4*(($B$1-$B$2)/($B$3-$B$2))*0.3,0)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I24" s="24">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="J24" s="12">
         <f>+'[1]Campania_25.1'!I4</f>
@@ -2501,9 +2674,9 @@
         <f>+'[1]Campania_25.1'!M4</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="12">
-        <f>+ROUNDUP('[1]Campania_25.1'!N4*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
-        <v>2</v>
+      <c r="Q24" s="22">
+        <f>+ROUNDUP('[1]Campania_25.1'!N4*(($B$1-$B$2)/($B$3-$B$2))*0.3,0)</f>
+        <v>1</v>
       </c>
       <c r="R24" s="24">
         <f t="shared" si="3"/>
@@ -2534,8 +2707,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
+    <row r="25" spans="1:24" s="28" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="70"/>
       <c r="B25" s="28" t="s">
         <v>76</v>
       </c>
@@ -2544,31 +2717,31 @@
       </c>
       <c r="D25" s="27">
         <f>+'[1]Campania_25.1'!D5</f>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E25" s="27">
         <f>+'[1]Campania_25.1'!E5</f>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F25" s="27">
         <f>+'[1]Campania_25.1'!F5</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="29">
         <f>+'[1]Campania_25.1'!G5</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H25" s="27">
         <f>+ROUNDUP('[1]Campania_25.1'!H5*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I25" s="24">
         <f t="shared" si="0"/>
-        <v>0.2857142857142857</v>
+        <v>1.2857142857142858</v>
       </c>
       <c r="J25" s="27">
         <f>+'[1]Campania_25.1'!I5</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K25" s="27">
         <f>+ROUNDUP('[1]Campania_25.1'!J5*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
@@ -2576,11 +2749,11 @@
       </c>
       <c r="L25" s="24">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M25" s="29">
         <f>+'[1]Campania_25.1'!K5</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N25" s="27">
         <f>+ROUNDUP('[1]Campania_25.1'!L5*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
@@ -2588,19 +2761,19 @@
       </c>
       <c r="O25" s="24">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="P25" s="29">
         <f>+'[1]Campania_25.1'!M5</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q25" s="27">
-        <f>+ROUNDUP('[1]Campania_25.1'!N5*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
-        <v>2</v>
+        <f>+ROUNDUP('[1]Campania_25.1'!N5*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
+        <v>1</v>
       </c>
       <c r="R25" s="24">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="S25" s="29">
         <v>0</v>
@@ -2626,9 +2799,9 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="48" t="str">
+      <c r="A26" s="68" t="str">
         <f>+'[1]Campania_25.1'!$A$6</f>
-        <v>Fiorella Lanegra</v>
+        <v>Rosmery Enriquez</v>
       </c>
       <c r="B26" t="s">
         <v>75</v>
@@ -2639,31 +2812,31 @@
       </c>
       <c r="D26" s="12">
         <f>+'[1]Campania_25.1'!D6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26" s="12">
         <f>+'[1]Campania_25.1'!E6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="12">
         <f>+'[1]Campania_25.1'!F6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="21">
         <f>+'[1]Campania_25.1'!G6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" s="12">
         <f>+ROUNDUP('[1]Campania_25.1'!H6*(($B$1-$B$2)/($B$3-$B$2))*0.3,0)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I26" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J26" s="12">
         <f>+'[1]Campania_25.1'!I6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="12">
         <f>+ROUNDUP('[1]Campania_25.1'!J6*(($B$1-$B$2)/($B$3-$B$2))*0.3,0)</f>
@@ -2671,7 +2844,7 @@
       </c>
       <c r="L26" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M26" s="21">
         <f>+'[1]Campania_25.1'!K6</f>
@@ -2689,9 +2862,9 @@
         <f>+'[1]Campania_25.1'!M6</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="12">
-        <f>+ROUNDUP('[1]Campania_25.1'!N6*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
-        <v>2</v>
+      <c r="Q26" s="22">
+        <f>+ROUNDUP('[1]Campania_25.1'!N6*(($B$1-$B$2)/($B$3-$B$2))*0.3,0)</f>
+        <v>1</v>
       </c>
       <c r="R26" s="32">
         <f t="shared" si="3"/>
@@ -2721,43 +2894,43 @@
       </c>
     </row>
     <row r="27" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="49"/>
-      <c r="B27" s="70" t="s">
+      <c r="A27" s="69"/>
+      <c r="B27" t="s">
         <v>76</v>
       </c>
       <c r="C27" s="12">
         <f>+'[1]Campania_25.1'!C7</f>
         <v>0</v>
       </c>
-      <c r="D27" s="69">
+      <c r="D27" s="12">
         <f>+'[1]Campania_25.1'!D7</f>
         <v>13</v>
       </c>
-      <c r="E27" s="69">
+      <c r="E27" s="12">
         <f>+'[1]Campania_25.1'!E7</f>
-        <v>7</v>
-      </c>
-      <c r="F27" s="69">
+        <v>8</v>
+      </c>
+      <c r="F27" s="12">
         <f>+'[1]Campania_25.1'!F7</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27" s="21">
         <f>+'[1]Campania_25.1'!G7</f>
-        <v>11</v>
-      </c>
-      <c r="H27" s="69">
+        <v>13</v>
+      </c>
+      <c r="H27" s="12">
         <f>+ROUNDUP('[1]Campania_25.1'!H7*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I27" s="32">
         <f t="shared" si="0"/>
-        <v>0.52380952380952384</v>
-      </c>
-      <c r="J27" s="69">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="J27" s="12">
         <f>+'[1]Campania_25.1'!I7</f>
         <v>5</v>
       </c>
-      <c r="K27" s="69">
+      <c r="K27" s="12">
         <f>+ROUNDUP('[1]Campania_25.1'!J7*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
         <v>5</v>
       </c>
@@ -2767,23 +2940,23 @@
       </c>
       <c r="M27" s="21">
         <f>+'[1]Campania_25.1'!K7</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="69">
+        <v>3</v>
+      </c>
+      <c r="N27" s="12">
         <f>+ROUNDUP('[1]Campania_25.1'!L7*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
         <v>4</v>
       </c>
       <c r="O27" s="32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="P27" s="21">
         <f>+'[1]Campania_25.1'!M7</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="69">
-        <f>+ROUNDUP('[1]Campania_25.1'!N7*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
-        <v>2</v>
+      <c r="Q27" s="27">
+        <f>+ROUNDUP('[1]Campania_25.1'!N7*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
+        <v>1</v>
       </c>
       <c r="R27" s="32">
         <f t="shared" si="3"/>
@@ -2792,7 +2965,7 @@
       <c r="S27" s="21">
         <v>0</v>
       </c>
-      <c r="T27" s="69">
+      <c r="T27" s="12">
         <f>+ROUNDUP('[1]Campania_25.1'!P7*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
         <v>1</v>
       </c>
@@ -2803,7 +2976,7 @@
       <c r="V27" s="21">
         <v>0</v>
       </c>
-      <c r="W27" s="69">
+      <c r="W27" s="12">
         <f>+ROUNDUP('[1]Campania_25.1'!P7*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
         <v>1</v>
       </c>
@@ -2813,11 +2986,11 @@
       </c>
     </row>
     <row r="28" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="48" t="str">
+      <c r="A28" s="68" t="str">
         <f>+'[1]Campania_25.1'!$A$8</f>
-        <v>Angelica Iparraguirre</v>
-      </c>
-      <c r="B28" s="71" t="s">
+        <v>Janira Delgado Salazar</v>
+      </c>
+      <c r="B28" s="48" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="47">
@@ -2826,41 +2999,41 @@
       </c>
       <c r="D28" s="47">
         <f>+'[1]Campania_25.1'!D8</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E28" s="47">
         <f>+'[1]Campania_25.1'!E8</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F28" s="47">
         <f>+'[1]Campania_25.1'!F8</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="72">
+        <v>5</v>
+      </c>
+      <c r="G28" s="49">
         <f>+'[1]Campania_25.1'!G8</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H28" s="47">
         <f>+ROUNDUP('[1]Campania_25.1'!H8*(($B$1-$B$2)/($B$3-$B$2))*0.3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="I28" s="73">
-        <f t="shared" ref="I28:I31" si="6">+G28/H28</f>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="I28" s="50">
+        <f t="shared" ref="I28:I29" si="6">+G28/H28</f>
+        <v>2.6666666666666665</v>
       </c>
       <c r="J28" s="47">
         <f>+'[1]Campania_25.1'!I8</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K28" s="47">
         <f>+ROUNDUP('[1]Campania_25.1'!J8*(($B$1-$B$2)/($B$3-$B$2))*0.3,0)</f>
         <v>2</v>
       </c>
-      <c r="L28" s="73">
-        <f t="shared" ref="L28:L31" si="7">+J28/K28</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="72">
+      <c r="L28" s="50">
+        <f t="shared" ref="L28:L29" si="7">+J28/K28</f>
+        <v>2.5</v>
+      </c>
+      <c r="M28" s="49">
         <f>+'[1]Campania_25.1'!K8</f>
         <v>0</v>
       </c>
@@ -2868,23 +3041,23 @@
         <f>+ROUNDUP('[1]Campania_25.1'!L8*(($B$1-$B$2)/($B$3-$B$2))*0.3,0)</f>
         <v>2</v>
       </c>
-      <c r="O28" s="73">
-        <f t="shared" ref="O28:O31" si="8">+M28/N28</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="72">
+      <c r="O28" s="50">
+        <f t="shared" ref="O28:O29" si="8">+M28/N28</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="49">
         <f>+'[1]Campania_25.1'!M8</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="47">
-        <f>+ROUNDUP('[1]Campania_25.1'!N8*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
-        <v>2</v>
-      </c>
-      <c r="R28" s="73">
-        <f t="shared" ref="R28:R31" si="9">+P28/Q28</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="72">
+      <c r="Q28" s="22">
+        <f>+ROUNDUP('[1]Campania_25.1'!N8*(($B$1-$B$2)/($B$3-$B$2))*0.3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R28" s="50">
+        <f t="shared" ref="R28:R29" si="9">+P28/Q28</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="49">
         <f>+'[1]Campania_25.1'!O8</f>
         <v>0</v>
       </c>
@@ -2892,11 +3065,11 @@
         <f>+ROUNDUP('[1]Campania_25.1'!P8*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
         <v>1</v>
       </c>
-      <c r="U28" s="73">
-        <f t="shared" ref="U28:U31" si="10">+S28/T28</f>
-        <v>0</v>
-      </c>
-      <c r="V28" s="72">
+      <c r="U28" s="50">
+        <f t="shared" ref="U28:U29" si="10">+S28/T28</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="49">
         <f>+'[1]Campania_25.1'!O8</f>
         <v>0</v>
       </c>
@@ -2904,27 +3077,27 @@
         <f>+ROUNDUP('[1]Campania_25.1'!P8*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
         <v>1</v>
       </c>
-      <c r="X28" s="73">
-        <f t="shared" ref="X28:X31" si="11">+V28/W28</f>
+      <c r="X28" s="50">
+        <f t="shared" ref="X28:X29" si="11">+V28/W28</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="49"/>
-      <c r="B29" s="70" t="s">
+      <c r="A29" s="69"/>
+      <c r="B29" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="69">
+      <c r="C29" s="12">
         <f>+'[1]Campania_25.1'!C9</f>
         <v>0</v>
       </c>
       <c r="D29" s="27">
         <f>+'[1]Campania_25.1'!D9</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E29" s="27">
         <f>+'[1]Campania_25.1'!E9</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F29" s="27">
         <f>+'[1]Campania_25.1'!F9</f>
@@ -2932,15 +3105,15 @@
       </c>
       <c r="G29" s="29">
         <f>+'[1]Campania_25.1'!G9</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H29" s="27">
         <f>+ROUNDUP('[1]Campania_25.1'!H9*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I29" s="32">
         <f t="shared" si="6"/>
-        <v>4.7619047619047616E-2</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J29" s="27">
         <f>+'[1]Campania_25.1'!I9</f>
@@ -2956,7 +3129,7 @@
       </c>
       <c r="M29" s="29">
         <f>+'[1]Campania_25.1'!K9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" s="27">
         <f>+ROUNDUP('[1]Campania_25.1'!L9*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
@@ -2964,15 +3137,15 @@
       </c>
       <c r="O29" s="32">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P29" s="29">
         <f>+'[1]Campania_25.1'!M9</f>
         <v>0</v>
       </c>
       <c r="Q29" s="27">
-        <f>+ROUNDUP('[1]Campania_25.1'!N9*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
-        <v>2</v>
+        <f>+ROUNDUP('[1]Campania_25.1'!N9*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
+        <v>1</v>
       </c>
       <c r="R29" s="32">
         <f t="shared" si="9"/>
@@ -3002,168 +3175,170 @@
       </c>
     </row>
     <row r="30" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="48" t="str">
+      <c r="A30" s="68" t="str">
         <f>+'[1]Campania_25.1'!$A$10</f>
-        <v>Maria Paz</v>
-      </c>
-      <c r="B30" s="71" t="s">
+        <v>JOSE RAUL MENDEZ NONAJULCA</v>
+      </c>
+      <c r="B30" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="69">
+      <c r="C30" s="47">
         <f>+'[1]Campania_25.1'!C10</f>
         <v>0</v>
       </c>
-      <c r="D30" s="69">
+      <c r="D30" s="47">
         <f>+'[1]Campania_25.1'!D10</f>
-        <v>8</v>
-      </c>
-      <c r="E30" s="69">
+        <v>6</v>
+      </c>
+      <c r="E30" s="47">
         <f>+'[1]Campania_25.1'!E10</f>
-        <v>7</v>
-      </c>
-      <c r="F30" s="69">
+        <v>3</v>
+      </c>
+      <c r="F30" s="47">
         <f>+'[1]Campania_25.1'!F10</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="21">
+        <v>1</v>
+      </c>
+      <c r="G30" s="49">
         <f>+'[1]Campania_25.1'!G10</f>
-        <v>8</v>
-      </c>
-      <c r="H30" s="69">
+        <v>4</v>
+      </c>
+      <c r="H30" s="47">
         <f>+ROUNDUP('[1]Campania_25.1'!H10*(($B$1-$B$2)/($B$3-$B$2))*0.3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="I30" s="32">
-        <f t="shared" si="6"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="J30" s="69">
+        <v>6</v>
+      </c>
+      <c r="I30" s="50">
+        <f t="shared" ref="I30:I31" si="12">+G30/H30</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J30" s="47">
         <f>+'[1]Campania_25.1'!I10</f>
         <v>1</v>
       </c>
-      <c r="K30" s="69">
+      <c r="K30" s="47">
         <f>+ROUNDUP('[1]Campania_25.1'!J10*(($B$1-$B$2)/($B$3-$B$2))*0.3,0)</f>
         <v>2</v>
       </c>
-      <c r="L30" s="32">
-        <f t="shared" si="7"/>
+      <c r="L30" s="50">
+        <f t="shared" ref="L30:L31" si="13">+J30/K30</f>
         <v>0.5</v>
       </c>
-      <c r="M30" s="21">
+      <c r="M30" s="49">
         <f>+'[1]Campania_25.1'!K10</f>
         <v>0</v>
       </c>
-      <c r="N30" s="69">
+      <c r="N30" s="47">
         <f>+ROUNDUP('[1]Campania_25.1'!L10*(($B$1-$B$2)/($B$3-$B$2))*0.3,0)</f>
         <v>2</v>
       </c>
-      <c r="O30" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="21">
+      <c r="O30" s="50">
+        <f t="shared" ref="O30:O31" si="14">+M30/N30</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="49">
         <f>+'[1]Campania_25.1'!M10</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="69">
-        <f>+ROUNDUP('[1]Campania_25.1'!N10*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
-        <v>2</v>
-      </c>
-      <c r="R30" s="32">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="21">
-        <v>0</v>
-      </c>
-      <c r="T30" s="69">
+      <c r="Q30" s="22">
+        <f>+ROUNDUP('[1]Campania_25.1'!N10*(($B$1-$B$2)/($B$3-$B$2))*0.3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R30" s="50">
+        <f t="shared" ref="R30:R31" si="15">+P30/Q30</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="49">
+        <f>+'[1]Campania_25.1'!O10</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="47">
         <f>+ROUNDUP('[1]Campania_25.1'!P10*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
         <v>1</v>
       </c>
-      <c r="U30" s="32">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="21">
-        <v>0</v>
-      </c>
-      <c r="W30" s="69">
+      <c r="U30" s="50">
+        <f t="shared" ref="U30:U31" si="16">+S30/T30</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="49">
+        <f>+'[1]Campania_25.1'!O10</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="47">
         <f>+ROUNDUP('[1]Campania_25.1'!P10*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
         <v>1</v>
       </c>
-      <c r="X30" s="32">
-        <f t="shared" si="11"/>
+      <c r="X30" s="50">
+        <f t="shared" ref="X30:X31" si="17">+V30/W30</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="49"/>
-      <c r="B31" s="28" t="s">
+      <c r="A31" s="69"/>
+      <c r="B31" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="27">
+      <c r="C31" s="12">
         <f>+'[1]Campania_25.1'!C11</f>
         <v>0</v>
       </c>
       <c r="D31" s="27">
         <f>+'[1]Campania_25.1'!D11</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" s="27">
         <f>+'[1]Campania_25.1'!E11</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F31" s="27">
         <f>+'[1]Campania_25.1'!F11</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" s="29">
         <f>+'[1]Campania_25.1'!G11</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H31" s="27">
         <f>+ROUNDUP('[1]Campania_25.1'!H11*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
-        <v>21</v>
-      </c>
-      <c r="I31" s="74">
-        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="I31" s="32">
+        <f t="shared" si="12"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="J31" s="27">
         <f>+'[1]Campania_25.1'!I11</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K31" s="27">
         <f>+ROUNDUP('[1]Campania_25.1'!J11*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
         <v>5</v>
       </c>
-      <c r="L31" s="74">
-        <f t="shared" si="7"/>
-        <v>0.6</v>
+      <c r="L31" s="32">
+        <f t="shared" si="13"/>
+        <v>0.8</v>
       </c>
       <c r="M31" s="29">
         <f>+'[1]Campania_25.1'!K11</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N31" s="27">
         <f>+ROUNDUP('[1]Campania_25.1'!L11*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
         <v>4</v>
       </c>
-      <c r="O31" s="74">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="O31" s="32">
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="P31" s="29">
         <f>+'[1]Campania_25.1'!M11</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q31" s="27">
-        <f>+ROUNDUP('[1]Campania_25.1'!N11*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
+        <f>+ROUNDUP('[1]Campania_25.1'!N11*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R31" s="32">
+        <f t="shared" si="15"/>
         <v>2</v>
-      </c>
-      <c r="R31" s="74">
-        <f t="shared" si="9"/>
-        <v>0</v>
       </c>
       <c r="S31" s="29">
         <v>0</v>
@@ -3172,8 +3347,8 @@
         <f>+ROUNDUP('[1]Campania_25.1'!P11*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
         <v>1</v>
       </c>
-      <c r="U31" s="74">
-        <f t="shared" si="10"/>
+      <c r="U31" s="32">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V31" s="29">
@@ -3183,109 +3358,501 @@
         <f>+ROUNDUP('[1]Campania_25.1'!P11*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
         <v>1</v>
       </c>
-      <c r="X31" s="74">
-        <f t="shared" si="11"/>
+      <c r="X31" s="32">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="68" t="str">
+        <f>+'[1]Campania_25.1'!$A$12</f>
+        <v>Andrea Araujo Antara</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="47">
+        <f>+'[1]Campania_25.1'!C12</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="47">
+        <f>+'[1]Campania_25.1'!D12</f>
+        <v>4</v>
+      </c>
+      <c r="E32" s="47">
+        <f>+'[1]Campania_25.1'!E12</f>
+        <v>4</v>
+      </c>
+      <c r="F32" s="47">
+        <f>+'[1]Campania_25.1'!F12</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="49">
+        <f>+'[1]Campania_25.1'!G12</f>
+        <v>4</v>
+      </c>
+      <c r="H32" s="47">
+        <f>+ROUNDUP('[1]Campania_25.1'!H12*(($B$1-$B$2)/($B$3-$B$2))*0.3,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I32" s="50">
+        <f t="shared" ref="I32:I33" si="18">+G32/H32</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J32" s="47">
+        <f>+'[1]Campania_25.1'!I12</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="47">
+        <f>+ROUNDUP('[1]Campania_25.1'!J12*(($B$1-$B$2)/($B$3-$B$2))*0.3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="L32" s="50">
+        <f t="shared" ref="L32:L33" si="19">+J32/K32</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="49">
+        <f>+'[1]Campania_25.1'!K12</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="47">
+        <f>+ROUNDUP('[1]Campania_25.1'!L12*(($B$1-$B$2)/($B$3-$B$2))*0.3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="O32" s="50">
+        <f t="shared" ref="O32:O33" si="20">+M32/N32</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="49">
+        <f>+'[1]Campania_25.1'!M12</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="22">
+        <f>+ROUNDUP('[1]Campania_25.1'!N12*(($B$1-$B$2)/($B$3-$B$2))*0.3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R32" s="50">
+        <f t="shared" ref="R32:R33" si="21">+P32/Q32</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="49">
+        <f>+'[1]Campania_25.1'!O12</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="47">
+        <f>+ROUNDUP('[1]Campania_25.1'!P12*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="U32" s="50">
+        <f t="shared" ref="U32:U33" si="22">+S32/T32</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="49">
+        <f>+'[1]Campania_25.1'!O12</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="47">
+        <f>+ROUNDUP('[1]Campania_25.1'!P12*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="X32" s="50">
+        <f t="shared" ref="X32:X33" si="23">+V32/W32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="69"/>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="12">
+        <f>+'[1]Campania_25.1'!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="27">
+        <f>+'[1]Campania_25.1'!D13</f>
+        <v>8</v>
+      </c>
+      <c r="E33" s="27">
+        <f>+'[1]Campania_25.1'!E13</f>
+        <v>8</v>
+      </c>
+      <c r="F33" s="27">
+        <f>+'[1]Campania_25.1'!F13</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="29">
+        <f>+'[1]Campania_25.1'!G13</f>
+        <v>8</v>
+      </c>
+      <c r="H33" s="27">
+        <f>+ROUNDUP('[1]Campania_25.1'!H13*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
+        <v>14</v>
+      </c>
+      <c r="I33" s="32">
+        <f t="shared" si="18"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J33" s="27">
+        <f>+'[1]Campania_25.1'!I13</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="27">
+        <f>+ROUNDUP('[1]Campania_25.1'!J13*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
+        <v>5</v>
+      </c>
+      <c r="L33" s="32">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="29">
+        <f>+'[1]Campania_25.1'!K13</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="27">
+        <f>+ROUNDUP('[1]Campania_25.1'!L13*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
+        <v>4</v>
+      </c>
+      <c r="O33" s="32">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="29">
+        <f>+'[1]Campania_25.1'!M13</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="27">
+        <f>+ROUNDUP('[1]Campania_25.1'!N13*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R33" s="32">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="29">
+        <v>0</v>
+      </c>
+      <c r="T33" s="27">
+        <f>+ROUNDUP('[1]Campania_25.1'!P13*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="U33" s="32">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="29">
+        <v>0</v>
+      </c>
+      <c r="W33" s="27">
+        <f>+ROUNDUP('[1]Campania_25.1'!P13*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="X33" s="32">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="68" t="str">
+        <f>+'[1]Campania_25.1'!$A$14</f>
+        <v>Cinthia Orosco</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="53">
+        <f>+'[1]Campania_25.1'!C14</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="54">
+        <f>+'[1]Campania_25.1'!D14</f>
+        <v>7</v>
+      </c>
+      <c r="E34" s="54">
+        <f>+'[1]Campania_25.1'!E14</f>
+        <v>4</v>
+      </c>
+      <c r="F34" s="54">
+        <f>+'[1]Campania_25.1'!F14</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="29">
+        <f>+'[1]Campania_25.1'!G14</f>
+        <v>7</v>
+      </c>
+      <c r="H34" s="53">
+        <f>+ROUNDUP('[1]Campania_25.1'!H14*(($B$1-$B$2)/($B$3-$B$2))*0.3,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I34" s="50">
+        <f t="shared" ref="I34:I35" si="24">+G34/H34</f>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="J34" s="53">
+        <f>+'[1]Campania_25.1'!I14</f>
+        <v>3</v>
+      </c>
+      <c r="K34" s="53">
+        <f>+ROUNDUP('[1]Campania_25.1'!J14*(($B$1-$B$2)/($B$3-$B$2))*0.3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="L34" s="50">
+        <f t="shared" ref="L34:L35" si="25">+J34/K34</f>
+        <v>1.5</v>
+      </c>
+      <c r="M34" s="49">
+        <f>+'[1]Campania_25.1'!K14</f>
+        <v>2</v>
+      </c>
+      <c r="N34" s="53">
+        <f>+ROUNDUP('[1]Campania_25.1'!L14*(($B$1-$B$2)/($B$3-$B$2))*0.3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="O34" s="50">
+        <f t="shared" ref="O34:O35" si="26">+M34/N34</f>
+        <v>1</v>
+      </c>
+      <c r="P34" s="49">
+        <f>+'[1]Campania_25.1'!M14</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="55">
+        <f>+ROUNDUP('[1]Campania_25.1'!N14*(($B$1-$B$2)/($B$3-$B$2))*0.3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R34" s="50">
+        <f t="shared" ref="R34:R35" si="27">+P34/Q34</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="49">
+        <f>+'[1]Campania_25.1'!O14</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="53">
+        <f>+ROUNDUP('[1]Campania_25.1'!P14*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="U34" s="50">
+        <f t="shared" ref="U34:U35" si="28">+S34/T34</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="49">
+        <f>+'[1]Campania_25.1'!O14</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="53">
+        <f>+ROUNDUP('[1]Campania_25.1'!P14*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="X34" s="50">
+        <f t="shared" ref="X34:X35" si="29">+V34/W34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="69"/>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="12">
+        <f>+'[1]Campania_25.1'!C15</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="54">
+        <f>+'[1]Campania_25.1'!D15</f>
+        <v>13</v>
+      </c>
+      <c r="E35" s="54">
+        <f>+'[1]Campania_25.1'!E15</f>
+        <v>7</v>
+      </c>
+      <c r="F35" s="54">
+        <f>+'[1]Campania_25.1'!F15</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="29">
+        <f>+'[1]Campania_25.1'!G15</f>
+        <v>13</v>
+      </c>
+      <c r="H35" s="54">
+        <f>+ROUNDUP('[1]Campania_25.1'!H15*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
+        <v>14</v>
+      </c>
+      <c r="I35" s="32">
+        <f t="shared" si="24"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="J35" s="54">
+        <f>+'[1]Campania_25.1'!I15</f>
+        <v>6</v>
+      </c>
+      <c r="K35" s="54">
+        <f>+ROUNDUP('[1]Campania_25.1'!J15*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
+        <v>5</v>
+      </c>
+      <c r="L35" s="32">
+        <f t="shared" si="25"/>
+        <v>1.2</v>
+      </c>
+      <c r="M35" s="29">
+        <f>+'[1]Campania_25.1'!K15</f>
+        <v>5</v>
+      </c>
+      <c r="N35" s="54">
+        <f>+ROUNDUP('[1]Campania_25.1'!L15*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
+        <v>4</v>
+      </c>
+      <c r="O35" s="32">
+        <f t="shared" si="26"/>
+        <v>1.25</v>
+      </c>
+      <c r="P35" s="29">
+        <f>+'[1]Campania_25.1'!M15</f>
+        <v>2</v>
+      </c>
+      <c r="Q35" s="54">
+        <f>+ROUNDUP('[1]Campania_25.1'!N15*(($B$1-$B$2)/($B$3-$B$2))*0.7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="R35" s="32">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="S35" s="29">
+        <v>0</v>
+      </c>
+      <c r="T35" s="54">
+        <f>+ROUNDUP('[1]Campania_25.1'!P15*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="U35" s="32">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="29">
+        <v>0</v>
+      </c>
+      <c r="W35" s="54">
+        <f>+ROUNDUP('[1]Campania_25.1'!P15*(($B$1-$B$2)/($B$3-$B$2)),0)</f>
+        <v>1</v>
+      </c>
+      <c r="X35" s="32">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="14">
-        <f>+SUM(C24:C31)</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="14">
-        <f>+SUM(D22:D31)</f>
-        <v>75</v>
-      </c>
-      <c r="E32" s="14">
-        <f>+SUM(E22:E31)</f>
-        <v>47</v>
-      </c>
-      <c r="F32" s="14">
-        <f>+SUM(F22:F31)</f>
-        <v>8</v>
-      </c>
-      <c r="G32" s="14">
-        <f>+SUM(G22:G31)</f>
-        <v>68</v>
-      </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="16">
-        <f>+AVERAGE(AVERAGE(I22:I23),AVERAGE(I26:I31))</f>
-        <v>0.5621693121693121</v>
-      </c>
-      <c r="J32" s="14">
-        <f>+SUM(J22:J31)</f>
-        <v>24</v>
-      </c>
-      <c r="K32" s="12"/>
-      <c r="L32" s="16">
-        <f>+AVERAGE(AVERAGE(L22:L23),AVERAGE(L26:L31))</f>
-        <v>0.76666666666666661</v>
-      </c>
-      <c r="M32" s="14">
-        <f>+SUM(M24:M31)</f>
-        <v>2</v>
-      </c>
-      <c r="N32" s="12"/>
-      <c r="O32" s="16">
-        <f>+AVERAGE(AVERAGE(O22:O23),AVERAGE(O26:O31))</f>
-        <v>0.1875</v>
-      </c>
-      <c r="P32" s="14">
-        <f>+SUM(P24:P31)</f>
-        <v>1</v>
-      </c>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="16">
-        <f>+AVERAGE(AVERAGE(R22:R23),AVERAGE(R26:R31))</f>
+      <c r="C36" s="14">
+        <f>+SUM(C24:C35)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="14">
+        <f>+SUM(D22:D35)</f>
+        <v>125</v>
+      </c>
+      <c r="E36" s="14">
+        <f>+SUM(E22:E35)</f>
+        <v>87</v>
+      </c>
+      <c r="F36" s="14">
+        <f>+SUM(F22:F35)</f>
+        <v>12</v>
+      </c>
+      <c r="G36" s="14">
+        <f>+SUM(G22:G35)</f>
+        <v>118</v>
+      </c>
+      <c r="H36" s="14">
+        <f>+SUM(H24:H35)</f>
+        <v>120</v>
+      </c>
+      <c r="I36" s="16">
+        <f>G36/H36</f>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="J36" s="14">
+        <f>+SUM(J22:J35)</f>
+        <v>34</v>
+      </c>
+      <c r="K36" s="14">
+        <f>+SUM(K24:K35)</f>
+        <v>42</v>
+      </c>
+      <c r="L36" s="16">
+        <f>J36/K36</f>
+        <v>0.80952380952380953</v>
+      </c>
+      <c r="M36" s="14">
+        <f>+SUM(M22:M35)</f>
+        <v>21</v>
+      </c>
+      <c r="N36" s="14">
+        <f>+SUM(N24:N35)</f>
+        <v>36</v>
+      </c>
+      <c r="O36" s="16">
+        <f>M36/N36</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="P36" s="14">
+        <f>+SUM(P22:P35)</f>
+        <v>6</v>
+      </c>
+      <c r="Q36" s="14">
+        <f>+SUM(Q24:Q35)</f>
+        <v>12</v>
+      </c>
+      <c r="R36" s="16">
+        <f>P36/Q36</f>
+        <v>0.5</v>
+      </c>
+      <c r="S36" s="14">
+        <f>+SUM(S26:S35)</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="12"/>
+      <c r="U36" s="16">
+        <f>+AVERAGE(AVERAGE(U24:U25),AVERAGE(U28:U35))</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="14">
+        <f>+SUM(V26:V35)</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="12"/>
+      <c r="X36" s="16">
+        <f>+AVERAGE(AVERAGE(X24:X25),AVERAGE(X28:X35))</f>
         <v>0.25</v>
       </c>
-      <c r="S32" s="14">
-        <f>+SUM(S24:S31)</f>
-        <v>0</v>
-      </c>
-      <c r="T32" s="12"/>
-      <c r="U32" s="16">
-        <f>+AVERAGE(AVERAGE(U22:U23),AVERAGE(U26:U31))</f>
-        <v>0</v>
-      </c>
-      <c r="V32" s="14">
-        <f>+SUM(V24:V31)</f>
-        <v>1</v>
-      </c>
-      <c r="W32" s="12"/>
-      <c r="X32" s="16">
-        <f>+AVERAGE(AVERAGE(X22:X23),AVERAGE(X26:X31))</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="R5:T5"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="U5:W5"/>
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="M20:O20"/>
     <mergeCell ref="P20:R20"/>
     <mergeCell ref="S20:U20"/>
     <mergeCell ref="V20:X20"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="G20:I20"/>
     <mergeCell ref="I5:K5"/>
   </mergeCells>
-  <conditionalFormatting sqref="N7:N8 Q7:Q8 I22:I31 L22:L31 O22:O31 R22:R31 U22:U31 X22:X31 H7:H8 K7:K8 W7:W8 T7:T8">
-    <cfRule type="colorScale" priority="11">
+  <conditionalFormatting sqref="N7:N8 Q7:Q8 H7:H8 K7:K8 W7:W8 T7:T8 I22:I35 L22:L35 O22:O35 R22:R35 U22:U35 X22:X35">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="23"/>
@@ -3295,7 +3862,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -4356,10 +4923,10 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="67"/>
+      <c r="B6" s="75"/>
       <c r="D6" s="34" t="s">
         <v>110</v>
       </c>
@@ -4380,8 +4947,8 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
-      <c r="B7" s="67"/>
+      <c r="A7" s="75"/>
+      <c r="B7" s="75"/>
       <c r="D7" s="34" t="s">
         <v>111</v>
       </c>
@@ -4402,8 +4969,8 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
       <c r="D8" s="15"/>
       <c r="E8" s="42">
         <f>+E7-E6-M1</f>
@@ -4433,8 +5000,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="75"/>
       <c r="D9" s="3" t="s">
         <v>113</v>
       </c>
